--- a/energy_flow_data/forest streams energy flows.xlsx
+++ b/energy_flow_data/forest streams energy flows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZLi\research\network model\potential energy flow data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA06FA5B-0BEB-4D8C-87FA-B4C33C04AA76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7D6CE5-8E0D-4AE7-95E5-581C9A902E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6815D67C-A078-433A-8086-A00636BFC16A}"/>
+    <workbookView xWindow="-15917" yWindow="0" windowWidth="16457" windowHeight="8529" activeTab="1" xr2:uid="{6815D67C-A078-433A-8086-A00636BFC16A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>D-Non-Tanypodinae</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t xml:space="preserve">Eurycea wilderae </t>
+  </si>
+  <si>
+    <t>after experiment</t>
+  </si>
+  <si>
+    <t>before experiment (quasi-steady state)</t>
   </si>
 </sst>
 </file>
@@ -621,9 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B538210-E310-4209-A81E-6CA26F8054BD}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -633,6 +637,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
       <c r="B1" s="11" t="s">
         <v>40</v>
       </c>
@@ -1091,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9CF6D0-B89C-4D2A-954B-EC79B5914268}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1104,6 +1111,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
       <c r="B1" s="11" t="s">
         <v>40</v>
       </c>
